--- a/assets/findings/2024-02-17-findings.xlsx
+++ b/assets/findings/2024-02-17-findings.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COG-84" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-84" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="93" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COG-84" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-84" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,25 +435,26 @@
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
-    <col width="34.8" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="37.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="25.2" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,90 +475,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -578,65 +585,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CLVHHWAJQLD7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>10.558</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-10</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>80723</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CHILD AND ADULT CARE FOOD PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1588642</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -649,308 +654,17 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024138</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>St. Thomas University, Inc.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AWARD-0001</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-001</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>COG-84</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>80723</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024138</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>St. Thomas University, Inc.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AWARD-0002</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-001</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>COG-84</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>434397</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024138</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>St. Thomas University, Inc.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AWARD-0002</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-002</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>COG-84</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>434397</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -958,12 +672,6 @@
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -975,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,24 +694,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="106.8" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="55.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="63.59999999999999" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1024,90 +733,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1115,7 +829,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1129,60 +843,58 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AWARD-0003</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>AWARD-0001</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>84.007</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>894926</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FEDERAL SUPPLEMENTAL EDUCATIONAL OPPORTUNITY GRANTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>184976</v>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1205,7 +917,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1213,7 +928,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1227,60 +942,58 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AWARD-0004</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>AWARD-0002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>84.033</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1223888</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FEDERAL WORK-STUDY PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>666699</v>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1303,7 +1016,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1311,7 +1027,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1325,60 +1041,58 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AWARD-0005</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>AWARD-0003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>84.367</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>84.038</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>IMPROVING TEACHER QUALITY STATE GRANTS</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>66061</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FEDERAL PERKINS LOAN PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1718952</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1401,7 +1115,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1409,7 +1126,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1423,60 +1140,58 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AWARD-0006</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>AWARD-0004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>84.367</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>84.063</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>IMPROVING TEACHER QUALITY STATE GRANTS</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>89774</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FEDERAL PELL GRANT PROGRAM</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>5730536</v>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1499,7 +1214,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1507,7 +1225,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1521,60 +1239,58 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AWARD-0003</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-003</t>
+          <t>AWARD-0005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>84.010</t>
+          <t>2023-001</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>84.268</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>894926</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>FEDERAL DIRECT STUDENT LOANS</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>64291363</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1592,92 +1308,93 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2022-003</t>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000024499</t>
+          <t>2023-06-GSAFAC-0000024138</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Drexel Foundation for Educational Excellence, Inc. d/b/a Thea Bowman Leadership Academy</t>
+          <t>St. Thomas University, Inc.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AWARD-0003</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-001</t>
+          <t>AWARD-0002</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>84.010</t>
+          <t>2023-002</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>OVER-84</t>
+          <t>84.033</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>894926</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FEDERAL WORK-STUDY PROGRAM</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>666699</v>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1695,7 +1412,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1703,79 +1423,77 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000024499</t>
+          <t>2023-06-GSAFAC-0000024138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Drexel Foundation for Educational Excellence, Inc. d/b/a Thea Bowman Leadership Academy</t>
+          <t>St. Thomas University, Inc.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AWARD-0004</t>
+          <t>YK1LYF3LQNL5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-001</t>
+          <t>AWARD-0003</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>84.010</t>
+          <t>2023-003</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>OVER-84</t>
+          <t>84.038</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1223888</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FEDERAL PERKINS LOAN PROGRAM</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1718952</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1793,15 +1511,18 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2022-003</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1815,70 +1536,68 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AWARD-0016</t>
+          <t>UVP8UVFY7B33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-002</t>
+          <t>AWARD-0003</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>84.425</t>
+          <t>2023-001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>84.010</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3039552</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>894926</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1891,7 +1610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1899,7 +1621,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1913,70 +1635,68 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AWARD-0017</t>
+          <t>UVP8UVFY7B33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-002</t>
+          <t>AWARD-0004</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>84.425</t>
+          <t>2023-001</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>84.010</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>EDUCATION STABILIZATION FUND</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1318802</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1223888</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1989,7 +1709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1997,97 +1720,296 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000024499</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Drexel Foundation for Educational Excellence, Inc. d/b/a Thea Bowman Leadership Academy</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AWARD-0016</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2023-002</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3039552</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000024499</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Drexel Foundation for Educational Excellence, Inc. d/b/a Thea Bowman Leadership Academy</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AWARD-0017</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2023-002</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>84.425</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>EDUCATION STABILIZATION FUND</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1318802</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>14</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2023-06-GSAFAC-0000024499</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Drexel Foundation for Educational Excellence, Inc. d/b/a Thea Bowman Leadership Academy</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>AWARD-0018</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J13" t="n">
         <v>19650</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2115,6 +2037,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId18"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2126,7 +2052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,24 +2063,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="34.8" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="55.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2175,90 +2102,353 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reference_number</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>aln</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cog_over</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>federal_program_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>amount_expended</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_direct</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>is_major</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>is_passthrough_award</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>passthrough_amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_modified_opinion</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>is_other_matters</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>is_material_weakness</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_significant_deficiency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>is_other_findings</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>is_questioned_costs</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>is_repeat_finding</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>prior_finding_ref_numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000024138</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>St. Thomas University, Inc.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AWARD-0006</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>93.264</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>COG-84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NURSE FACULTY LOAN PROGRAM (NFLP)</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>56776</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="34.8" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="63.59999999999999" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>report_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>auditee_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>award_reference</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -2280,60 +2470,58 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>84.007</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>80723</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FEDERAL SUPPLEMENTAL EDUCATIONAL OPPORTUNITY GRANTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>184976</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -2356,7 +2544,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2378,60 +2569,58 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>84.033</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>434397</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FEDERAL WORK-STUDY PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>666699</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -2454,7 +2643,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2476,60 +2668,58 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>84.038</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>894926</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FEDERAL PERKINS LOAN PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1718952</v>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -2552,7 +2742,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2574,60 +2767,58 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>84.063</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1223888</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FEDERAL PELL GRANT PROGRAM</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>5730536</v>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -2650,7 +2841,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2672,60 +2866,58 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0005</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>84.367</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>84.268</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>IMPROVING TEACHER QUALITY STATE GRANTS</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>66061</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>FEDERAL DIRECT STUDENT LOANS</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>64291363</v>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -2748,7 +2940,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2770,60 +2965,58 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>AWARD-0006</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>84.367</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>93.264</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>IMPROVING TEACHER QUALITY STATE GRANTS</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>89774</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NURSE FACULTY LOAN PROGRAM (NFLP)</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>56776</v>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -2846,7 +3039,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2868,60 +3064,58 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>84.033</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>434397</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FEDERAL WORK-STUDY PROGRAM</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>666699</v>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2944,7 +3138,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2966,60 +3163,58 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>YK1LYF3LQNL5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>84.038</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>COG-84</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>894926</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FEDERAL PERKINS LOAN PROGRAM</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1718952</v>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -3037,12 +3232,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>2022-003</t>
         </is>
@@ -3071,13 +3269,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,24 +3286,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="25.2" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="31.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3126,90 +3325,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -3231,65 +3435,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CLVHHWAJQLD7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>10.558</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-10</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>80723</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CHILD AND ADULT CARE FOOD PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1588642</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -3302,12 +3504,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -3322,13 +3527,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,24 +3544,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="106.8" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="55.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="55.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3377,90 +3583,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -3482,70 +3693,68 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>84.010</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>894926</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -3558,7 +3767,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3580,70 +3792,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>84.010</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1223888</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -3656,7 +3866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3678,70 +3891,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0016</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3039552</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -3754,7 +3965,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3776,70 +3990,68 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1318802</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -3852,7 +4064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3874,70 +4089,68 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>UVP8UVFY7B33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0018</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>19650</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -3950,7 +4163,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/assets/findings/2024-02-17-findings.xlsx
+++ b/assets/findings/2024-02-17-findings.xlsx
@@ -626,8 +626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -659,8 +661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -884,8 +888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -917,8 +923,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -983,8 +991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1016,8 +1026,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1082,8 +1094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1115,8 +1129,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1181,8 +1197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1214,8 +1232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1280,8 +1300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1313,8 +1335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1379,8 +1403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1412,8 +1438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1478,8 +1506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1511,8 +1541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1577,8 +1609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1610,8 +1644,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1676,8 +1712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1709,8 +1747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1775,8 +1815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1808,8 +1850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1874,8 +1918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1907,8 +1953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1973,8 +2021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2006,8 +2056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -2253,8 +2305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2286,8 +2340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2511,8 +2567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2544,8 +2602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2610,8 +2670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2643,8 +2705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2709,8 +2773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2742,8 +2808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2808,8 +2876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2841,8 +2911,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2907,8 +2979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -2940,8 +3014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3006,8 +3082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3039,8 +3117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3105,8 +3185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3138,8 +3220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3204,8 +3288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3237,8 +3323,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3476,8 +3564,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3509,8 +3599,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3734,8 +3826,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3767,8 +3861,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3833,8 +3929,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3866,8 +3964,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3932,8 +4032,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3965,8 +4067,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4031,8 +4135,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4064,8 +4170,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4130,8 +4238,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4163,8 +4273,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
